--- a/Documents/Plan/Реализация проекта ВДС.xlsx
+++ b/Documents/Plan/Реализация проекта ВДС.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\IDS RailWay\Documents\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\IDS-RailWay\Documents\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">График!$B$1:$BQ$70</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
   <si>
     <t>Функционал</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Процент выполнения</t>
   </si>
   <si>
-    <t>Выполнить алгоритм поиска вагонов по накладной через СМС</t>
-  </si>
-  <si>
     <t>Выполнить создание отчетных форм по прибытию</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>Выполнить алгоритм поиска вагонов в промежуточной базе данных ЭПД</t>
   </si>
   <si>
-    <t>Форма "Приёмосдатчика", раздел "Сведения ЭПД" , формирование списка вагонов ЭПД.</t>
-  </si>
-  <si>
     <t>Форма "Приёмосдатчика", раздел "Информация о вагоне" ,  выполнить алгоритм ручного ввода данных из ЭПД</t>
   </si>
   <si>
@@ -304,316 +298,331 @@
     <t>Примечание(дополнение)</t>
   </si>
   <si>
-    <t>Доработат привязку к вагону ЭПД</t>
-  </si>
-  <si>
-    <t>Дата выполнениядополнение</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Отображать кнопки поиск и ввод в ручную после дейсвий поиска.
+    <t>План-график по внедрению внутренней эффективной диспетчерской системы ПАО " АРСЕЛОРМИТТАЛ КРИВОЙ РОГ"</t>
+  </si>
+  <si>
+    <t>Прим</t>
+  </si>
+  <si>
+    <t>Название задачи</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>2021г.</t>
+  </si>
+  <si>
+    <t>Ответственные за исполнение</t>
+  </si>
+  <si>
+    <t>Обследование ( 1 этап ).</t>
+  </si>
+  <si>
+    <t>Изучение структуры предприятия, путевого развития, внешней и внутренней логистики, ЕТП, действующего порядка оформления перевозочных документов</t>
+  </si>
+  <si>
+    <t>Изучение уже разработанного программного обеспечения КИС, АСУТП, SAP  для использования актуальных данных в ИДС ЖД</t>
+  </si>
+  <si>
+    <t>Определение перечня логистических задач с целью определения приоритетов в реализации ИДС ЖД</t>
+  </si>
+  <si>
+    <t>Распределение ролей в соответствии с организацией перевозочного процесса предприятия</t>
+  </si>
+  <si>
+    <t>Изучение сетевой ифраструктуры, наличия СВТ в соответствии с распределенными  ролями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание и наполнение баз данных нормативно-справочной информацией, для возможности реализовать процессы приема вагонов от железной дороги и отправления вагонов на железную дорогу </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Создание  функциональной спецификации с описанием бизнесс -  процессов  по разработке ИДС ЖД</t>
+  </si>
+  <si>
+    <t>Согласование   функциональной спецификации</t>
+  </si>
+  <si>
+    <t>Организация работ по реализации проекта</t>
+  </si>
+  <si>
+    <t>Прием вагонов от железной дороги (2 этап)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка ТЗ по загрузке ЭПД,  раскредитации вагонов, автоматического расчета ж.д. тарифа по прибытию грузов  и других процессов  при приеме вагонов </t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Разработка программного обеспечения по загрузке ЭПД в БД АМКР (Получение ЭПД через серевер модуля  согласования).</t>
+  </si>
+  <si>
+    <t>Швец Е.</t>
+  </si>
+  <si>
+    <t>Разработка ФС  по взаимодействии с системой ПО SAP для получения входящей поставки и заадресовки груза на АМКР</t>
+  </si>
+  <si>
+    <t>Разработка WEB сервиса SAP для формирования данных по входящей поставке и заадресовки по запросам системы ИДС.</t>
+  </si>
+  <si>
+    <t>Стойчева Н.</t>
+  </si>
+  <si>
+    <t>Разработка ПО сервисов и структуры базы данных для автоматического формирования справочников ИДС.</t>
+  </si>
+  <si>
+    <t>Разработка ПО, подсистема "Номерного учета прибывших вагонов на АМКР".</t>
+  </si>
+  <si>
+    <t>Разработка ПО, подсистема "Прием груза (раскредитация)".</t>
+  </si>
+  <si>
+    <t>Разработка ПО, подсистема "Учет недостач по прибывшим грузам".</t>
+  </si>
+  <si>
+    <t>Разработка ПО, подсистема "Расчета ЖД тарифа".</t>
+  </si>
+  <si>
+    <t>Тестирование программного обеспечения.</t>
+  </si>
+  <si>
+    <t>Шуба И., Левченко Э.</t>
+  </si>
+  <si>
+    <t>Сдача вагонов на железную дорогу  (3 этап).</t>
+  </si>
+  <si>
+    <t>Разработка ТЗ по загрузке ЭПД через модуль согласования в АС " Клиент УЗ" , формированию перевозочных докуметов в ВДС.  ( планируется разработка по передаче XML-файла в АС Клиент УЗ при помощи модуля согласования через систему ПО SAP   )</t>
+  </si>
+  <si>
+    <t>Разработка ТЗ по отправлению вагонов на внешнюю сеть с подъездного пути предприятия</t>
+  </si>
+  <si>
+    <t>Разработка ФС  по взаимодействии с системой ПО SAP для получения исходящей поставки груженных вагонов на АМКР</t>
+  </si>
+  <si>
+    <t>Разработка WEB сервиса SAP для формирования данных  исходящей поставки груженных вагонов на АМКР по запросам системы ИДС.</t>
+  </si>
+  <si>
+    <t>Разработка ПО,  подсистема "Отправление вагонов на внешнюю сеть с подъездного пути предприятия"</t>
+  </si>
+  <si>
+    <t>Автоматизация управления процессами перевозок на внутренних ж.д. станциях, с возможностью разделения по операциям  (грузовые, коммерческие, транспортные) (4 этап).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка ТЗ  по вводу данных, связанных с перемещением вагонов на территории предприятия  </t>
+  </si>
+  <si>
+    <t>Разработка ПО,  подсистема "Перемещением вагонов на территории предприятия".</t>
+  </si>
+  <si>
+    <t>Расчет платы за пользование и времени нахождения вагонов на подъездном пути предприятия (5 этап).</t>
+  </si>
+  <si>
+    <t>Разработка ТЗ по расчету платы за пользование и времени нахождения вагонов на подъездном пути предприятия</t>
+  </si>
+  <si>
+    <t>Разработка ПО,  подсистема "Расчет платы за пользование и времени нахождения вагонов на подъездном пути предприятия".</t>
+  </si>
+  <si>
+    <t>Внедрение 2-5 го этапа ИДС ЖД на станциях и в структурных подразделениях (6 этап).</t>
+  </si>
+  <si>
+    <t>Обучение сотрудников станций и работников  структурных подразделений</t>
+  </si>
+  <si>
+    <t>Проведение опытной эксплуатации ИДС ЖД на станциях</t>
+  </si>
+  <si>
+    <t>Выполнение доработок системы по результатам опытной эксплуатации</t>
+  </si>
+  <si>
+    <t>Учет погрузки - выгрузки вагонов в структурных подразделениях предприятия  (сдаточная ведомость). 7 этап</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка ТЗ по формированию сдаточной ведомости </t>
+  </si>
+  <si>
+    <t>Разработка программного обеспечения   по  формированию сдаточной ведомости</t>
+  </si>
+  <si>
+    <t>Тестирование программного обеспечения   по  формированию сдаточной ведомости</t>
+  </si>
+  <si>
+    <t>Отчетные формы, 7 этап</t>
+  </si>
+  <si>
+    <t>Разработка постановки по формированию отчетных форм</t>
+  </si>
+  <si>
+    <t>Разработка отчетных форм</t>
+  </si>
+  <si>
+    <t>Тестирование формирования отчетов по заданным критериям</t>
+  </si>
+  <si>
+    <t>Визуализация ИДС</t>
+  </si>
+  <si>
+    <t>Ориентировочные сроки 2021-2022гг.</t>
+  </si>
+  <si>
+    <t>Разработка графических схем станций, перегонов, цехов, фронтов погрузки-выгрузки вагонов согласно ТРА</t>
+  </si>
+  <si>
+    <t>Разработка постановки ПО визуализации местонохождения и перемещения вагонов на станции или между станциями</t>
+  </si>
+  <si>
+    <t>Разработка программ  визуализации</t>
+  </si>
+  <si>
+    <t>Тестирование программ    визуализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контроль  перемещения вагонов с продукцией комбината в  АРМе диспетчера при взаимодействии с   системой видеонаблюдения. </t>
+  </si>
+  <si>
+    <t>Разработка ТЗ по взаимодействию АРМа диспетчера и системы  видеонаблюдения</t>
+  </si>
+  <si>
+    <t>Разработка программного обеспечения  по взаимодействию АРМа диспетчера и системы видеонаблюдения</t>
+  </si>
+  <si>
+    <t>Тестирование  программного обеспечения  по взаимодействию АРМа и системой видеонаблюдения</t>
+  </si>
+  <si>
+    <t>Доработки и оптимизация работы программного обеспечения</t>
+  </si>
+  <si>
+    <t>Промышленная эксплуатация  ИДС УЖДТ</t>
+  </si>
+  <si>
+    <t>Директор транспортного департамента</t>
+  </si>
+  <si>
+    <t>А.Н. Рыбалкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Директор департамента автоматизации </t>
+  </si>
+  <si>
+    <t>технологических процессов</t>
+  </si>
+  <si>
+    <t>А.В. Зайцев</t>
+  </si>
+  <si>
+    <t>Создание базы данных вагонов местного парка</t>
+  </si>
+  <si>
+    <t>Разработка постановки ПО по вводу данных о вагонах МП</t>
+  </si>
+  <si>
+    <t>Разработка программ  по вводу данных о вагонах МП</t>
+  </si>
+  <si>
+    <t>Тестирование программ  по вводу данных о вагонах МП</t>
+  </si>
+  <si>
+    <t>Учет осмотра вагонов</t>
+  </si>
+  <si>
+    <t>Разработка постановки ПО по учету осмотра вагонов, их забраковки и изменения годности</t>
+  </si>
+  <si>
+    <t>Разработка программ по   учету осмотра вагонов, их забраковки и изменения годности</t>
+  </si>
+  <si>
+    <t>Тестирование программ по   учету осмотра вагонов, их забраковки и изменения годности</t>
+  </si>
+  <si>
+    <t>Учет ремонта вагонов</t>
+  </si>
+  <si>
+    <t>Разработка постановки ПО по вводу данных о ремонте вагонов</t>
+  </si>
+  <si>
+    <t>Разработка программ  по вводу данных о ремонте вагонов</t>
+  </si>
+  <si>
+    <t>Тестирование программ  по вводу данных о ремонте вагонов</t>
+  </si>
+  <si>
+    <t>Осталась настройка доступа на сервере</t>
+  </si>
+  <si>
+    <t>Выполнить алгоритм поиска вагонов по номеру накладной через модуль согласования.</t>
+  </si>
+  <si>
+    <t>Форма "Приёмосдатчика", раздел "Сведения ЭПД" , формирование списка вагонов ЭПД и события выбора вагона.</t>
+  </si>
+  <si>
+    <t>Дата выполнения дополнения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Отображать вагоны с документами признаками наличия документа.
 </t>
   </si>
   <si>
-    <t>1. Отображать вагоны с документами призаками наличия документа.
-2. Добавить кнопку добавить вагон (если состав в ручную его, вагон искать в подходах ? )</t>
-  </si>
-  <si>
-    <t>План-график по внедрению внутренней эффективной диспетчерской системы ПАО " АРСЕЛОРМИТТАЛ КРИВОЙ РОГ"</t>
-  </si>
-  <si>
-    <t>Прим</t>
-  </si>
-  <si>
-    <t>Название задачи</t>
-  </si>
-  <si>
-    <t>Октябрь</t>
-  </si>
-  <si>
-    <t>Ноябрь</t>
-  </si>
-  <si>
-    <t>Декабрь</t>
-  </si>
-  <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
-    <t>Апрель</t>
-  </si>
-  <si>
-    <t>Май</t>
-  </si>
-  <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Август</t>
-  </si>
-  <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
-    <t>2021г.</t>
-  </si>
-  <si>
-    <t>Ответственные за исполнение</t>
-  </si>
-  <si>
-    <t>Обследование ( 1 этап ).</t>
-  </si>
-  <si>
-    <t>Изучение структуры предприятия, путевого развития, внешней и внутренней логистики, ЕТП, действующего порядка оформления перевозочных документов</t>
-  </si>
-  <si>
-    <t>Изучение уже разработанного программного обеспечения КИС, АСУТП, SAP  для использования актуальных данных в ИДС ЖД</t>
-  </si>
-  <si>
-    <t>Определение перечня логистических задач с целью определения приоритетов в реализации ИДС ЖД</t>
-  </si>
-  <si>
-    <t>Распределение ролей в соответствии с организацией перевозочного процесса предприятия</t>
-  </si>
-  <si>
-    <t>Изучение сетевой ифраструктуры, наличия СВТ в соответствии с распределенными  ролями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание и наполнение баз данных нормативно-справочной информацией, для возможности реализовать процессы приема вагонов от железной дороги и отправления вагонов на железную дорогу </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Создание  функциональной спецификации с описанием бизнесс -  процессов  по разработке ИДС ЖД</t>
-  </si>
-  <si>
-    <t>Согласование   функциональной спецификации</t>
-  </si>
-  <si>
-    <t>Организация работ по реализации проекта</t>
-  </si>
-  <si>
-    <t>Прием вагонов от железной дороги (2 этап)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка ТЗ по загрузке ЭПД,  раскредитации вагонов, автоматического расчета ж.д. тарифа по прибытию грузов  и других процессов  при приеме вагонов </t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Разработка программного обеспечения по загрузке ЭПД в БД АМКР (Получение ЭПД через серевер модуля  согласования).</t>
-  </si>
-  <si>
-    <t>Швец Е.</t>
-  </si>
-  <si>
-    <t>Разработка ФС  по взаимодействии с системой ПО SAP для получения входящей поставки и заадресовки груза на АМКР</t>
-  </si>
-  <si>
-    <t>Разработка WEB сервиса SAP для формирования данных по входящей поставке и заадресовки по запросам системы ИДС.</t>
-  </si>
-  <si>
-    <t>Стойчева Н.</t>
-  </si>
-  <si>
-    <t>Разработка ПО сервисов и структуры базы данных для автоматического формирования справочников ИДС.</t>
-  </si>
-  <si>
-    <t>Разработка ПО, подсистема "Номерного учета прибывших вагонов на АМКР".</t>
-  </si>
-  <si>
-    <t>Разработка ПО, подсистема "Прием груза (раскредитация)".</t>
-  </si>
-  <si>
-    <t>Разработка ПО, подсистема "Учет недостач по прибывшим грузам".</t>
-  </si>
-  <si>
-    <t>Разработка ПО, подсистема "Расчета ЖД тарифа".</t>
-  </si>
-  <si>
-    <t>Тестирование программного обеспечения.</t>
-  </si>
-  <si>
-    <t>Шуба И., Левченко Э.</t>
-  </si>
-  <si>
-    <t>Сдача вагонов на железную дорогу  (3 этап).</t>
-  </si>
-  <si>
-    <t>Разработка ТЗ по загрузке ЭПД через модуль согласования в АС " Клиент УЗ" , формированию перевозочных докуметов в ВДС.  ( планируется разработка по передаче XML-файла в АС Клиент УЗ при помощи модуля согласования через систему ПО SAP   )</t>
-  </si>
-  <si>
-    <t>Разработка ТЗ по отправлению вагонов на внешнюю сеть с подъездного пути предприятия</t>
-  </si>
-  <si>
-    <t>Разработка ФС  по взаимодействии с системой ПО SAP для получения исходящей поставки груженных вагонов на АМКР</t>
-  </si>
-  <si>
-    <t>Разработка WEB сервиса SAP для формирования данных  исходящей поставки груженных вагонов на АМКР по запросам системы ИДС.</t>
-  </si>
-  <si>
-    <t>Разработка ПО,  подсистема "Отправление вагонов на внешнюю сеть с подъездного пути предприятия"</t>
-  </si>
-  <si>
-    <t>Автоматизация управления процессами перевозок на внутренних ж.д. станциях, с возможностью разделения по операциям  (грузовые, коммерческие, транспортные) (4 этап).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка ТЗ  по вводу данных, связанных с перемещением вагонов на территории предприятия  </t>
-  </si>
-  <si>
-    <t>Разработка ПО,  подсистема "Перемещением вагонов на территории предприятия".</t>
-  </si>
-  <si>
-    <t>Расчет платы за пользование и времени нахождения вагонов на подъездном пути предприятия (5 этап).</t>
-  </si>
-  <si>
-    <t>Разработка ТЗ по расчету платы за пользование и времени нахождения вагонов на подъездном пути предприятия</t>
-  </si>
-  <si>
-    <t>Разработка ПО,  подсистема "Расчет платы за пользование и времени нахождения вагонов на подъездном пути предприятия".</t>
-  </si>
-  <si>
-    <t>Внедрение 2-5 го этапа ИДС ЖД на станциях и в структурных подразделениях (6 этап).</t>
-  </si>
-  <si>
-    <t>Обучение сотрудников станций и работников  структурных подразделений</t>
-  </si>
-  <si>
-    <t>Проведение опытной эксплуатации ИДС ЖД на станциях</t>
-  </si>
-  <si>
-    <t>Выполнение доработок системы по результатам опытной эксплуатации</t>
-  </si>
-  <si>
-    <t>Учет погрузки - выгрузки вагонов в структурных подразделениях предприятия  (сдаточная ведомость). 7 этап</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка ТЗ по формированию сдаточной ведомости </t>
-  </si>
-  <si>
-    <t>Разработка программного обеспечения   по  формированию сдаточной ведомости</t>
-  </si>
-  <si>
-    <t>Тестирование программного обеспечения   по  формированию сдаточной ведомости</t>
-  </si>
-  <si>
-    <t>Отчетные формы, 7 этап</t>
-  </si>
-  <si>
-    <t>Разработка постановки по формированию отчетных форм</t>
-  </si>
-  <si>
-    <t>Разработка отчетных форм</t>
-  </si>
-  <si>
-    <t>Тестирование формирования отчетов по заданным критериям</t>
-  </si>
-  <si>
-    <t>Визуализация ИДС</t>
-  </si>
-  <si>
-    <t>Ориентировочные сроки 2021-2022гг.</t>
-  </si>
-  <si>
-    <t>Разработка графических схем станций, перегонов, цехов, фронтов погрузки-выгрузки вагонов согласно ТРА</t>
-  </si>
-  <si>
-    <t>Разработка постановки ПО визуализации местонохождения и перемещения вагонов на станции или между станциями</t>
-  </si>
-  <si>
-    <t>Разработка программ  визуализации</t>
-  </si>
-  <si>
-    <t>Тестирование программ    визуализации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Контроль  перемещения вагонов с продукцией комбината в  АРМе диспетчера при взаимодействии с   системой видеонаблюдения. </t>
-  </si>
-  <si>
-    <t>Разработка ТЗ по взаимодействию АРМа диспетчера и системы  видеонаблюдения</t>
-  </si>
-  <si>
-    <t>Разработка программного обеспечения  по взаимодействию АРМа диспетчера и системы видеонаблюдения</t>
-  </si>
-  <si>
-    <t>Тестирование  программного обеспечения  по взаимодействию АРМа и системой видеонаблюдения</t>
-  </si>
-  <si>
-    <t>Доработки и оптимизация работы программного обеспечения</t>
-  </si>
-  <si>
-    <t>Промышленная эксплуатация  ИДС УЖДТ</t>
-  </si>
-  <si>
-    <t>Директор транспортного департамента</t>
-  </si>
-  <si>
-    <t>А.Н. Рыбалкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Директор департамента автоматизации </t>
-  </si>
-  <si>
-    <t>технологических процессов</t>
-  </si>
-  <si>
-    <t>А.В. Зайцев</t>
-  </si>
-  <si>
-    <t>Создание базы данных вагонов местного парка</t>
-  </si>
-  <si>
-    <t>Разработка постановки ПО по вводу данных о вагонах МП</t>
-  </si>
-  <si>
-    <t>Разработка программ  по вводу данных о вагонах МП</t>
-  </si>
-  <si>
-    <t>Тестирование программ  по вводу данных о вагонах МП</t>
-  </si>
-  <si>
-    <t>Учет осмотра вагонов</t>
-  </si>
-  <si>
-    <t>Разработка постановки ПО по учету осмотра вагонов, их забраковки и изменения годности</t>
-  </si>
-  <si>
-    <t>Разработка программ по   учету осмотра вагонов, их забраковки и изменения годности</t>
-  </si>
-  <si>
-    <t>Тестирование программ по   учету осмотра вагонов, их забраковки и изменения годности</t>
-  </si>
-  <si>
-    <t>Учет ремонта вагонов</t>
-  </si>
-  <si>
-    <t>Разработка постановки ПО по вводу данных о ремонте вагонов</t>
-  </si>
-  <si>
-    <t>Разработка программ  по вводу данных о ремонте вагонов</t>
-  </si>
-  <si>
-    <t>Тестирование программ  по вводу данных о ремонте вагонов</t>
+    <t xml:space="preserve">1. Отображать кнопки поиск и ввод в ручную после действий поиска.
+</t>
+  </si>
+  <si>
+    <t>Доработать привязку к вагону ЭПД</t>
+  </si>
+  <si>
+    <t>Выполнить миндальное окно ввода номера накладной и обработки результатов поиска. (если ЭПД по номеру накладной - найден, определить по ЭПД номера вагонов, найти их на подходах и если нажата кнопка "ОК" перенести их в раздел "Сведения ЭПД" убрав из составов на подходах</t>
+  </si>
+  <si>
+    <t>Выполнить миндальное окно ввода номеров вагонов вручную. (автоподбор вариантов вагонов зашедших за сутки , определение по вагонам  ЭПД если нажата кнопка "ОК" перенести их в низ раздела "подходы" убрав из составов на подходах.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,8 +759,16 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +831,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -917,13 +939,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1116,6 +1139,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,31 +1178,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="4" builtinId="27"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
@@ -3118,10 +3151,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G54"/>
+  <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,20 +3167,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -3156,29 +3189,29 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="A5" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3186,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="20">
         <v>43892</v>
@@ -3199,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="20">
         <v>43894</v>
@@ -3212,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="20">
         <v>43896</v>
@@ -3225,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="20">
         <v>43899</v>
@@ -3238,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="20">
         <v>43901</v>
@@ -3246,7 +3279,7 @@
       <c r="D11" s="22"/>
       <c r="E11" s="27"/>
       <c r="G11" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3254,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="20">
         <v>43903</v>
@@ -3267,7 +3300,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="20">
         <v>43906</v>
@@ -3280,7 +3313,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="20">
         <v>43908</v>
@@ -3293,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="20">
         <v>43910</v>
@@ -3306,7 +3339,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="20">
         <v>43914</v>
@@ -3319,7 +3352,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="20">
         <v>43915</v>
@@ -3327,42 +3360,46 @@
       <c r="D17" s="22"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="20">
         <v>43917</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="27"/>
+      <c r="D18" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="20">
+        <v>43941</v>
+      </c>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>13</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="20">
         <v>43920</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="27"/>
+      <c r="D19" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="20">
+        <v>43941</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>14</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="20">
         <v>43922</v>
@@ -3375,7 +3412,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="20">
         <v>43923</v>
@@ -3388,7 +3425,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="20">
         <v>43926</v>
@@ -3401,7 +3438,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="20">
         <v>43927</v>
@@ -3414,7 +3451,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="20">
         <v>43931</v>
@@ -3427,7 +3464,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="20">
         <v>43934</v>
@@ -3440,7 +3477,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="20">
         <v>43934</v>
@@ -3453,7 +3490,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="20">
         <v>43935</v>
@@ -3466,7 +3503,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="20">
         <v>43936</v>
@@ -3479,7 +3516,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="20">
         <v>43936</v>
@@ -3492,7 +3529,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="20">
         <v>43937</v>
@@ -3501,41 +3538,41 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="83">
         <v>25</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="24" t="s">
-        <v>86</v>
+      <c r="B31" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="84" t="s">
+        <v>84</v>
       </c>
       <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="83">
         <v>26</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="85"/>
+      <c r="D32" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="83">
+        <v>27</v>
+      </c>
+      <c r="B33" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>27</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24" t="s">
-        <v>86</v>
+      <c r="C33" s="85"/>
+      <c r="D33" s="84" t="s">
+        <v>84</v>
       </c>
       <c r="E33" s="27"/>
     </row>
@@ -3544,55 +3581,63 @@
         <v>28</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="20">
         <v>43938</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="D34" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="20">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
         <v>29</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="21">
+        <v>43941</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>185</v>
+      </c>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>30</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="27"/>
+        <v>192</v>
+      </c>
+      <c r="C36" s="27">
+        <v>43942</v>
+      </c>
       <c r="D36" s="28"/>
       <c r="E36" s="27"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>31</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>32</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
@@ -3603,7 +3648,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
@@ -3614,7 +3659,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -3625,7 +3670,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="28"/>
@@ -3636,117 +3681,139 @@
         <v>36</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="28"/>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <v>37</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="C43" s="27"/>
       <c r="D43" s="28"/>
       <c r="E43" s="27"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>38</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="34">
-        <f>(COUNTA(C7:C42)*100)/COUNTA(A7:A42)</f>
-        <v>69.444444444444443</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="34">
+        <f>(COUNTA(C7:C44)*100)/COUNTA(A7:A44)</f>
+        <v>71.05263157894737</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="28"/>
     </row>
-    <row r="51" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
     </row>
-    <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="28"/>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="28"/>
     </row>
     <row r="54" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -3782,21 +3849,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="8"/>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>0</v>
@@ -3805,13 +3872,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>1</v>
@@ -3824,16 +3891,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16"/>
@@ -3845,16 +3912,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="16"/>
@@ -3866,16 +3933,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="16"/>
@@ -3887,16 +3954,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="16"/>
@@ -3908,10 +3975,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
@@ -3969,21 +4036,21 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="B13" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="10"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>0</v>
@@ -3992,13 +4059,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>1</v>
@@ -4011,13 +4078,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -4030,16 +4097,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="20">
         <v>43937</v>
@@ -4053,16 +4120,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="E17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="G17" s="20">
         <v>43938</v>
@@ -4076,16 +4143,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="16"/>
@@ -4097,16 +4164,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="20">
         <v>43937</v>
@@ -4120,16 +4187,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="16"/>
@@ -4141,16 +4208,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="16"/>
@@ -4162,16 +4229,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="16"/>
@@ -4183,20 +4250,20 @@
         <v>9</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="6"/>
@@ -4206,20 +4273,20 @@
         <v>10</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="6"/>
@@ -4229,16 +4296,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="16"/>
@@ -4250,16 +4317,16 @@
         <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="16"/>
@@ -4271,16 +4338,16 @@
         <v>13</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="16"/>
@@ -4707,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
@@ -4777,109 +4844,109 @@
     </row>
     <row r="3" spans="1:67" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="70" t="s">
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="70" t="s">
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="70" t="s">
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="70" t="s">
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="70" t="s">
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="70" t="s">
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="70" t="s">
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="36" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
@@ -5073,7 +5140,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -5143,7 +5210,7 @@
     </row>
     <row r="6" spans="1:67" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -5210,12 +5277,12 @@
       <c r="BM6" s="40"/>
       <c r="BN6" s="40"/>
       <c r="BO6" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -5282,12 +5349,12 @@
       <c r="BM7" s="40"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -5357,7 +5424,7 @@
     </row>
     <row r="9" spans="1:67" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -5424,12 +5491,12 @@
       <c r="BM9" s="40"/>
       <c r="BN9" s="40"/>
       <c r="BO9" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:67" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -5496,12 +5563,12 @@
       <c r="BM10" s="40"/>
       <c r="BN10" s="40"/>
       <c r="BO10" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -5568,12 +5635,12 @@
       <c r="BM11" s="40"/>
       <c r="BN11" s="40"/>
       <c r="BO11" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:67" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -5640,12 +5707,12 @@
       <c r="BM12" s="46"/>
       <c r="BN12" s="46"/>
       <c r="BO12" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:67" s="44" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -5712,37 +5779,37 @@
       <c r="BM13" s="46"/>
       <c r="BN13" s="46"/>
       <c r="BO13" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
+      <c r="B14" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
       <c r="AA14" s="40"/>
       <c r="AB14" s="41"/>
       <c r="AC14" s="40"/>
@@ -5787,7 +5854,7 @@
     </row>
     <row r="15" spans="1:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -5857,7 +5924,7 @@
     </row>
     <row r="16" spans="1:67" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -5924,15 +5991,15 @@
       <c r="BM16" s="40"/>
       <c r="BN16" s="40"/>
       <c r="BO16" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -5999,13 +6066,13 @@
       <c r="BM17" s="40"/>
       <c r="BN17" s="40"/>
       <c r="BO17" s="42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="43" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -6072,13 +6139,13 @@
       <c r="BM18" s="40"/>
       <c r="BN18" s="40"/>
       <c r="BO18" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -6145,13 +6212,13 @@
       <c r="BM19" s="40"/>
       <c r="BN19" s="40"/>
       <c r="BO19" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:67" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -6218,13 +6285,13 @@
       <c r="BM20" s="40"/>
       <c r="BN20" s="40"/>
       <c r="BO20" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="43" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -6291,13 +6358,13 @@
       <c r="BM21" s="40"/>
       <c r="BN21" s="40"/>
       <c r="BO21" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -6364,13 +6431,13 @@
       <c r="BM22" s="40"/>
       <c r="BN22" s="40"/>
       <c r="BO22" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -6437,13 +6504,13 @@
       <c r="BM23" s="40"/>
       <c r="BN23" s="40"/>
       <c r="BO23" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -6510,12 +6577,12 @@
       <c r="BM24" s="40"/>
       <c r="BN24" s="40"/>
       <c r="BO24" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:67" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
@@ -6582,13 +6649,13 @@
       <c r="BM25" s="51"/>
       <c r="BN25" s="51"/>
       <c r="BO25" s="53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:67" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -6658,7 +6725,7 @@
     </row>
     <row r="27" spans="1:67" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -6725,12 +6792,12 @@
       <c r="BM27" s="40"/>
       <c r="BN27" s="40"/>
       <c r="BO27" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:67" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="43" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -6797,12 +6864,12 @@
       <c r="BM28" s="40"/>
       <c r="BN28" s="40"/>
       <c r="BO28" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="43" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -6869,12 +6936,12 @@
       <c r="BM29" s="40"/>
       <c r="BN29" s="40"/>
       <c r="BO29" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -6941,15 +7008,15 @@
       <c r="BM30" s="40"/>
       <c r="BN30" s="40"/>
       <c r="BO30" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -7016,12 +7083,12 @@
       <c r="BM31" s="40"/>
       <c r="BN31" s="40"/>
       <c r="BO31" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -7088,12 +7155,12 @@
       <c r="BM32" s="40"/>
       <c r="BN32" s="40"/>
       <c r="BO32" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:79" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
@@ -7164,7 +7231,7 @@
     </row>
     <row r="34" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="43" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -7231,15 +7298,15 @@
       <c r="BM34" s="40"/>
       <c r="BN34" s="40"/>
       <c r="BO34" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -7306,12 +7373,12 @@
       <c r="BM35" s="40"/>
       <c r="BN35" s="40"/>
       <c r="BO35" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -7378,12 +7445,12 @@
       <c r="BM36" s="40"/>
       <c r="BN36" s="40"/>
       <c r="BO36" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -7453,7 +7520,7 @@
     </row>
     <row r="38" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="43" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
@@ -7520,12 +7587,12 @@
       <c r="BM38" s="40"/>
       <c r="BN38" s="40"/>
       <c r="BO38" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -7592,12 +7659,12 @@
       <c r="BM39" s="40"/>
       <c r="BN39" s="40"/>
       <c r="BO39" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -7664,12 +7731,12 @@
       <c r="BM40" s="40"/>
       <c r="BN40" s="40"/>
       <c r="BO40" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
@@ -7739,7 +7806,7 @@
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B42" s="58" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
@@ -7806,15 +7873,15 @@
       <c r="BM42" s="55"/>
       <c r="BN42" s="55"/>
       <c r="BO42" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -7881,12 +7948,12 @@
       <c r="BM43" s="55"/>
       <c r="BN43" s="55"/>
       <c r="BO43" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B44" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
@@ -7953,12 +8020,12 @@
       <c r="BM44" s="55"/>
       <c r="BN44" s="55"/>
       <c r="BO44" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
@@ -8028,7 +8095,7 @@
     </row>
     <row r="46" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B46" s="43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -8095,12 +8162,12 @@
       <c r="BM46" s="55"/>
       <c r="BN46" s="55"/>
       <c r="BO46" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
@@ -8167,12 +8234,12 @@
       <c r="BM47" s="55"/>
       <c r="BN47" s="55"/>
       <c r="BO47" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -8239,12 +8306,12 @@
       <c r="BM48" s="55"/>
       <c r="BN48" s="55"/>
       <c r="BO48" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
@@ -8314,7 +8381,7 @@
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
@@ -8381,12 +8448,12 @@
       <c r="BM50" s="55"/>
       <c r="BN50" s="55"/>
       <c r="BO50" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B51" s="57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
@@ -8453,12 +8520,12 @@
       <c r="BM51" s="55"/>
       <c r="BN51" s="55"/>
       <c r="BO51" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="57" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
@@ -8525,12 +8592,12 @@
       <c r="BM52" s="55"/>
       <c r="BN52" s="55"/>
       <c r="BO52" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
@@ -8596,13 +8663,13 @@
       <c r="BL53" s="55"/>
       <c r="BM53" s="55"/>
       <c r="BN53" s="55"/>
-      <c r="BO53" s="73" t="s">
-        <v>163</v>
+      <c r="BO53" s="80" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -8668,11 +8735,11 @@
       <c r="BL54" s="55"/>
       <c r="BM54" s="55"/>
       <c r="BN54" s="55"/>
-      <c r="BO54" s="74"/>
+      <c r="BO54" s="81"/>
     </row>
     <row r="55" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="43" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -8738,11 +8805,11 @@
       <c r="BL55" s="55"/>
       <c r="BM55" s="55"/>
       <c r="BN55" s="55"/>
-      <c r="BO55" s="74"/>
+      <c r="BO55" s="81"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -8808,11 +8875,11 @@
       <c r="BL56" s="55"/>
       <c r="BM56" s="55"/>
       <c r="BN56" s="55"/>
-      <c r="BO56" s="74"/>
+      <c r="BO56" s="81"/>
     </row>
     <row r="57" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="43" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
@@ -8878,11 +8945,11 @@
       <c r="BL57" s="46"/>
       <c r="BM57" s="46"/>
       <c r="BN57" s="46"/>
-      <c r="BO57" s="74"/>
+      <c r="BO57" s="81"/>
     </row>
     <row r="58" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -8948,11 +9015,11 @@
       <c r="BL58" s="55"/>
       <c r="BM58" s="55"/>
       <c r="BN58" s="55"/>
-      <c r="BO58" s="74"/>
+      <c r="BO58" s="81"/>
     </row>
     <row r="59" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
@@ -9018,11 +9085,11 @@
       <c r="BL59" s="55"/>
       <c r="BM59" s="55"/>
       <c r="BN59" s="55"/>
-      <c r="BO59" s="74"/>
+      <c r="BO59" s="81"/>
     </row>
     <row r="60" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="43" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
@@ -9088,11 +9155,11 @@
       <c r="BL60" s="55"/>
       <c r="BM60" s="55"/>
       <c r="BN60" s="55"/>
-      <c r="BO60" s="74"/>
+      <c r="BO60" s="81"/>
     </row>
     <row r="61" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
@@ -9158,11 +9225,11 @@
       <c r="BL61" s="55"/>
       <c r="BM61" s="55"/>
       <c r="BN61" s="55"/>
-      <c r="BO61" s="74"/>
+      <c r="BO61" s="81"/>
     </row>
     <row r="62" spans="1:67" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
@@ -9228,11 +9295,11 @@
       <c r="BL62" s="55"/>
       <c r="BM62" s="55"/>
       <c r="BN62" s="55"/>
-      <c r="BO62" s="74"/>
+      <c r="BO62" s="81"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
@@ -9298,32 +9365,32 @@
       <c r="BL63" s="40"/>
       <c r="BM63" s="40"/>
       <c r="BN63" s="40"/>
-      <c r="BO63" s="75"/>
+      <c r="BO63" s="82"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B66" s="61" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E66" s="62" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="61" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B69" s="61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E69" s="62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="62"/>
@@ -9339,66 +9406,74 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="63" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="64" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="64" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="64" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="63" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="64" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="64" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="64" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="63" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="64" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="64" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="64" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="BO53:BO63"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AY3:BB3"/>
+    <mergeCell ref="BC3:BF3"/>
+    <mergeCell ref="BG3:BJ3"/>
     <mergeCell ref="B1:BO1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -9410,17 +9485,9 @@
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="BO53:BO63"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AY3:BB3"/>
-    <mergeCell ref="BC3:BF3"/>
-    <mergeCell ref="BG3:BJ3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Plan/Реализация проекта ВДС.xlsx
+++ b/Documents/Plan/Реализация проекта ВДС.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\IDS-RailWay\Documents\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\IDS RailWay\Documents\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">График!$B$1:$BQ$70</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="198">
   <si>
     <t>Функционал</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Форма "Приёмосдатчика", разработка и согласование основных разделов.</t>
   </si>
   <si>
-    <t>Форма "Приёмосдатчика", раздел "Подходы" , формирование списка непринятых вагонов.</t>
-  </si>
-  <si>
     <t>Форма "Приёмосдатчика", раздел "Информация о вагоне" ,  согласование и расположение элементов на форме.</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>Форма "Приёмосдатчика", раздел "Информация о вагоне", добавить цветовое разграничения и всплывающие подсказки  элементов ввода в зависимости от режимов работы</t>
   </si>
   <si>
-    <t>Ждем согласования функционального описания - Стойчевой</t>
-  </si>
-  <si>
     <t>Шуба И.</t>
   </si>
   <si>
@@ -590,9 +584,6 @@
   </si>
   <si>
     <t>Выполнить алгоритм поиска вагонов по номеру накладной через модуль согласования.</t>
-  </si>
-  <si>
-    <t>Форма "Приёмосдатчика", раздел "Сведения ЭПД" , формирование списка вагонов ЭПД и события выбора вагона.</t>
   </si>
   <si>
     <t>Дата выполнения дополнения</t>
@@ -613,16 +604,37 @@
   </si>
   <si>
     <t>Выполнить миндальное окно ввода номеров вагонов вручную. (автоподбор вариантов вагонов зашедших за сутки , определение по вагонам  ЭПД если нажата кнопка "ОК" перенести их в низ раздела "подходы" убрав из составов на подходах.</t>
+  </si>
+  <si>
+    <t>Форма "Приёмосдатчика", раздел "Вагоны" , формирование списка непринятых вагонов.</t>
+  </si>
+  <si>
+    <t>Форма "Приёмосдатчика", раздел "Вагоны" , добавление в список новых вагонов, введеных в ручную, визуальное выделение вагонов полученых автоматически, по ЭПД и в ручном режиме.</t>
+  </si>
+  <si>
+    <t>Оптимизация запроса на сервер согласования (запрос выполняется &gt; 3 минут)</t>
+  </si>
+  <si>
+    <t>Устаненить ошибку, состав удалялся, вагоны остаются в базе данных</t>
+  </si>
+  <si>
+    <t>Доработка функционала обновления информации о саставе после добавления новых вагонов в ручную (с учетом переноса из другого состава)</t>
+  </si>
+  <si>
+    <t>Ждем согласования функционального описания - Стойчевой  (получено 29.04.2020)</t>
+  </si>
+  <si>
+    <t>план 01.05.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,16 +771,8 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,11 +835,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -939,14 +938,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,15 +1155,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,20 +1167,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="4" builtinId="27"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
@@ -3153,8 +3141,8 @@
   </sheetPr>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,10 +3196,10 @@
         <v>48</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3267,7 @@
       <c r="D11" s="22"/>
       <c r="E11" s="27"/>
       <c r="G11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3295,7 +3283,7 @@
       <c r="D12" s="22"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>7</v>
       </c>
@@ -3305,10 +3293,14 @@
       <c r="C13" s="20">
         <v>43906</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="20">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>8</v>
       </c>
@@ -3318,8 +3310,12 @@
       <c r="C14" s="20">
         <v>43908</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="20">
+        <v>43945</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
@@ -3365,13 +3361,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="C18" s="20">
         <v>43917</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E18" s="20">
         <v>43941</v>
@@ -3382,13 +3378,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="20">
         <v>43920</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E19" s="20">
         <v>43941</v>
@@ -3399,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="20">
         <v>43922</v>
@@ -3412,7 +3408,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="20">
         <v>43923</v>
@@ -3425,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="20">
         <v>43926</v>
@@ -3438,7 +3434,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="20">
         <v>43927</v>
@@ -3451,7 +3447,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="20">
         <v>43931</v>
@@ -3464,7 +3460,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="20">
         <v>43934</v>
@@ -3477,7 +3473,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="20">
         <v>43934</v>
@@ -3490,7 +3486,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="20">
         <v>43935</v>
@@ -3503,7 +3499,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="20">
         <v>43936</v>
@@ -3516,7 +3512,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="20">
         <v>43936</v>
@@ -3529,7 +3525,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="20">
         <v>43937</v>
@@ -3537,42 +3533,42 @@
       <c r="D30" s="22"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>25</v>
       </c>
-      <c r="B31" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="84" t="s">
-        <v>84</v>
+      <c r="B31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="83">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>26</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>27</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="83">
-        <v>27</v>
-      </c>
-      <c r="B33" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
-        <v>84</v>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="E33" s="27"/>
     </row>
@@ -3581,77 +3577,89 @@
         <v>28</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="20">
         <v>43938</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E34" s="20">
         <v>43941</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="32">
         <v>29</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="B35" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="20">
         <v>43941</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="27"/>
+      <c r="D35" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="20">
+        <v>43942</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+      <c r="A36" s="32">
         <v>30</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="20">
+        <v>43948</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="20">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>31</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="20">
+        <v>43950</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>32</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="27">
-        <v>43942</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
-        <v>31</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
-        <v>32</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="20">
+        <v>43951</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>33</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
+      <c r="D39" s="28" t="s">
+        <v>197</v>
+      </c>
       <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3659,7 +3667,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -3670,10 +3678,12 @@
         <v>35</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
+      <c r="D41" s="28" t="s">
+        <v>197</v>
+      </c>
       <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3681,7 +3691,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
@@ -3692,7 +3702,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="28"/>
@@ -3703,7 +3713,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
@@ -3723,7 +3733,7 @@
       <c r="B46" s="72"/>
       <c r="C46" s="34">
         <f>(COUNTA(C7:C44)*100)/COUNTA(A7:A44)</f>
-        <v>71.05263157894737</v>
+        <v>76.315789473684205</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -3736,7 +3746,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
@@ -3830,7 +3840,7 @@
   </sheetPr>
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3872,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>35</v>
@@ -3897,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>34</v>
@@ -3918,7 +3928,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
@@ -3939,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>34</v>
@@ -3960,7 +3970,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>34</v>
@@ -4059,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>35</v>
@@ -4084,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -4103,7 +4113,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>38</v>
@@ -4126,7 +4136,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>38</v>
@@ -4149,7 +4159,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>38</v>
@@ -4170,7 +4180,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>38</v>
@@ -4193,7 +4203,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>40</v>
@@ -4214,7 +4224,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>40</v>
@@ -4235,7 +4245,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>40</v>
@@ -4256,7 +4266,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>38</v>
@@ -4279,7 +4289,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>40</v>
@@ -4302,7 +4312,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>40</v>
@@ -4323,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>43</v>
@@ -4344,7 +4354,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>38</v>
@@ -4773,180 +4783,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="76"/>
-      <c r="BL1" s="76"/>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="76"/>
+      <c r="B1" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
     </row>
     <row r="3" spans="1:67" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="77" t="s">
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="77" t="s">
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="77" t="s">
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="77" t="s">
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="77" t="s">
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="77" t="s">
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="77" t="s">
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="77" t="s">
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="77" t="s">
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="77" t="s">
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="77" t="s">
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="81"/>
+      <c r="BN3" s="81"/>
+      <c r="BO3" s="36" t="s">
         <v>104</v>
-      </c>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
@@ -5140,7 +5150,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -5210,7 +5220,7 @@
     </row>
     <row r="6" spans="1:67" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -5277,12 +5287,12 @@
       <c r="BM6" s="40"/>
       <c r="BN6" s="40"/>
       <c r="BO6" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -5349,12 +5359,12 @@
       <c r="BM7" s="40"/>
       <c r="BN7" s="40"/>
       <c r="BO7" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -5424,7 +5434,7 @@
     </row>
     <row r="9" spans="1:67" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -5491,12 +5501,12 @@
       <c r="BM9" s="40"/>
       <c r="BN9" s="40"/>
       <c r="BO9" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:67" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -5563,12 +5573,12 @@
       <c r="BM10" s="40"/>
       <c r="BN10" s="40"/>
       <c r="BO10" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -5635,12 +5645,12 @@
       <c r="BM11" s="40"/>
       <c r="BN11" s="40"/>
       <c r="BO11" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:67" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -5707,12 +5717,12 @@
       <c r="BM12" s="46"/>
       <c r="BN12" s="46"/>
       <c r="BO12" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:67" s="44" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -5779,37 +5789,37 @@
       <c r="BM13" s="46"/>
       <c r="BN13" s="46"/>
       <c r="BO13" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
+      <c r="B14" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
       <c r="AA14" s="40"/>
       <c r="AB14" s="41"/>
       <c r="AC14" s="40"/>
@@ -5854,7 +5864,7 @@
     </row>
     <row r="15" spans="1:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -5924,7 +5934,7 @@
     </row>
     <row r="16" spans="1:67" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -5991,15 +6001,15 @@
       <c r="BM16" s="40"/>
       <c r="BN16" s="40"/>
       <c r="BO16" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -6066,13 +6076,13 @@
       <c r="BM17" s="40"/>
       <c r="BN17" s="40"/>
       <c r="BO17" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -6139,13 +6149,13 @@
       <c r="BM18" s="40"/>
       <c r="BN18" s="40"/>
       <c r="BO18" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -6212,13 +6222,13 @@
       <c r="BM19" s="40"/>
       <c r="BN19" s="40"/>
       <c r="BO19" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:67" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -6285,13 +6295,13 @@
       <c r="BM20" s="40"/>
       <c r="BN20" s="40"/>
       <c r="BO20" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -6358,13 +6368,13 @@
       <c r="BM21" s="40"/>
       <c r="BN21" s="40"/>
       <c r="BO21" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -6431,13 +6441,13 @@
       <c r="BM22" s="40"/>
       <c r="BN22" s="40"/>
       <c r="BO22" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -6504,13 +6514,13 @@
       <c r="BM23" s="40"/>
       <c r="BN23" s="40"/>
       <c r="BO23" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -6577,12 +6587,12 @@
       <c r="BM24" s="40"/>
       <c r="BN24" s="40"/>
       <c r="BO24" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:67" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
@@ -6649,13 +6659,13 @@
       <c r="BM25" s="51"/>
       <c r="BN25" s="51"/>
       <c r="BO25" s="53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:67" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -6725,7 +6735,7 @@
     </row>
     <row r="27" spans="1:67" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -6792,12 +6802,12 @@
       <c r="BM27" s="40"/>
       <c r="BN27" s="40"/>
       <c r="BO27" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:67" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -6864,12 +6874,12 @@
       <c r="BM28" s="40"/>
       <c r="BN28" s="40"/>
       <c r="BO28" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -6936,12 +6946,12 @@
       <c r="BM29" s="40"/>
       <c r="BN29" s="40"/>
       <c r="BO29" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -7008,15 +7018,15 @@
       <c r="BM30" s="40"/>
       <c r="BN30" s="40"/>
       <c r="BO30" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -7083,12 +7093,12 @@
       <c r="BM31" s="40"/>
       <c r="BN31" s="40"/>
       <c r="BO31" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -7155,12 +7165,12 @@
       <c r="BM32" s="40"/>
       <c r="BN32" s="40"/>
       <c r="BO32" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:79" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
@@ -7231,7 +7241,7 @@
     </row>
     <row r="34" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -7298,15 +7308,15 @@
       <c r="BM34" s="40"/>
       <c r="BN34" s="40"/>
       <c r="BO34" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -7373,12 +7383,12 @@
       <c r="BM35" s="40"/>
       <c r="BN35" s="40"/>
       <c r="BO35" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -7445,12 +7455,12 @@
       <c r="BM36" s="40"/>
       <c r="BN36" s="40"/>
       <c r="BO36" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -7520,7 +7530,7 @@
     </row>
     <row r="38" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
@@ -7587,12 +7597,12 @@
       <c r="BM38" s="40"/>
       <c r="BN38" s="40"/>
       <c r="BO38" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -7659,12 +7669,12 @@
       <c r="BM39" s="40"/>
       <c r="BN39" s="40"/>
       <c r="BO39" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -7731,12 +7741,12 @@
       <c r="BM40" s="40"/>
       <c r="BN40" s="40"/>
       <c r="BO40" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
@@ -7806,7 +7816,7 @@
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B42" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
@@ -7873,15 +7883,15 @@
       <c r="BM42" s="55"/>
       <c r="BN42" s="55"/>
       <c r="BO42" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -7948,12 +7958,12 @@
       <c r="BM43" s="55"/>
       <c r="BN43" s="55"/>
       <c r="BO43" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B44" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
@@ -8020,12 +8030,12 @@
       <c r="BM44" s="55"/>
       <c r="BN44" s="55"/>
       <c r="BO44" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
@@ -8095,7 +8105,7 @@
     </row>
     <row r="46" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B46" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -8162,12 +8172,12 @@
       <c r="BM46" s="55"/>
       <c r="BN46" s="55"/>
       <c r="BO46" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
@@ -8234,12 +8244,12 @@
       <c r="BM47" s="55"/>
       <c r="BN47" s="55"/>
       <c r="BO47" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -8306,12 +8316,12 @@
       <c r="BM48" s="55"/>
       <c r="BN48" s="55"/>
       <c r="BO48" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
@@ -8381,7 +8391,7 @@
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
@@ -8448,12 +8458,12 @@
       <c r="BM50" s="55"/>
       <c r="BN50" s="55"/>
       <c r="BO50" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B51" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
@@ -8520,12 +8530,12 @@
       <c r="BM51" s="55"/>
       <c r="BN51" s="55"/>
       <c r="BO51" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
@@ -8592,12 +8602,12 @@
       <c r="BM52" s="55"/>
       <c r="BN52" s="55"/>
       <c r="BO52" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
@@ -8663,13 +8673,13 @@
       <c r="BL53" s="55"/>
       <c r="BM53" s="55"/>
       <c r="BN53" s="55"/>
-      <c r="BO53" s="80" t="s">
-        <v>157</v>
+      <c r="BO53" s="77" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -8735,11 +8745,11 @@
       <c r="BL54" s="55"/>
       <c r="BM54" s="55"/>
       <c r="BN54" s="55"/>
-      <c r="BO54" s="81"/>
+      <c r="BO54" s="78"/>
     </row>
     <row r="55" spans="1:67" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -8805,11 +8815,11 @@
       <c r="BL55" s="55"/>
       <c r="BM55" s="55"/>
       <c r="BN55" s="55"/>
-      <c r="BO55" s="81"/>
+      <c r="BO55" s="78"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -8875,11 +8885,11 @@
       <c r="BL56" s="55"/>
       <c r="BM56" s="55"/>
       <c r="BN56" s="55"/>
-      <c r="BO56" s="81"/>
+      <c r="BO56" s="78"/>
     </row>
     <row r="57" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
@@ -8945,11 +8955,11 @@
       <c r="BL57" s="46"/>
       <c r="BM57" s="46"/>
       <c r="BN57" s="46"/>
-      <c r="BO57" s="81"/>
+      <c r="BO57" s="78"/>
     </row>
     <row r="58" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -9015,11 +9025,11 @@
       <c r="BL58" s="55"/>
       <c r="BM58" s="55"/>
       <c r="BN58" s="55"/>
-      <c r="BO58" s="81"/>
+      <c r="BO58" s="78"/>
     </row>
     <row r="59" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
@@ -9085,11 +9095,11 @@
       <c r="BL59" s="55"/>
       <c r="BM59" s="55"/>
       <c r="BN59" s="55"/>
-      <c r="BO59" s="81"/>
+      <c r="BO59" s="78"/>
     </row>
     <row r="60" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
@@ -9155,11 +9165,11 @@
       <c r="BL60" s="55"/>
       <c r="BM60" s="55"/>
       <c r="BN60" s="55"/>
-      <c r="BO60" s="81"/>
+      <c r="BO60" s="78"/>
     </row>
     <row r="61" spans="1:67" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
@@ -9225,11 +9235,11 @@
       <c r="BL61" s="55"/>
       <c r="BM61" s="55"/>
       <c r="BN61" s="55"/>
-      <c r="BO61" s="81"/>
+      <c r="BO61" s="78"/>
     </row>
     <row r="62" spans="1:67" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
@@ -9295,11 +9305,11 @@
       <c r="BL62" s="55"/>
       <c r="BM62" s="55"/>
       <c r="BN62" s="55"/>
-      <c r="BO62" s="81"/>
+      <c r="BO62" s="78"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
@@ -9365,32 +9375,32 @@
       <c r="BL63" s="40"/>
       <c r="BM63" s="40"/>
       <c r="BN63" s="40"/>
-      <c r="BO63" s="82"/>
+      <c r="BO63" s="79"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B66" s="61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E66" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B69" s="61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E69" s="62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="62"/>
@@ -9406,74 +9416,66 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="BO53:BO63"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AY3:BB3"/>
-    <mergeCell ref="BC3:BF3"/>
-    <mergeCell ref="BG3:BJ3"/>
     <mergeCell ref="B1:BO1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -9485,9 +9487,17 @@
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="BO53:BO63"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AY3:BB3"/>
+    <mergeCell ref="BC3:BF3"/>
+    <mergeCell ref="BG3:BJ3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>